--- a/C61/Phase 1/Planification.xlsx
+++ b/C61/Phase 1/Planification.xlsx
@@ -1,26 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\C61-ProjetSynthese\C61\Phase 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4308BF-1224-4090-9811-2F7784D8D74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plannification globale" sheetId="1" r:id="rId1"/>
+    <sheet name="Soimaire - sprint" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9F0570D1-CBA7-43A1-9070-AFCA2B0D67C9}</author>
+    <author>tc={81C60AC0-D935-46DE-84D8-EC6328CEDC30}</author>
+    <author>tc={85ED4ADB-3F6C-4847-A56B-1292A1C6C7C2}</author>
+    <author>tc={623676B3-14AA-4184-9428-55ADD2304DA4}</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{9F0570D1-CBA7-43A1-9070-AFCA2B0D67C9}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    1 à 6 mots</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{81C60AC0-D935-46DE-84D8-EC6328CEDC30}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    # des tâches préalables</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="2" shapeId="0" xr:uid="{85ED4ADB-3F6C-4847-A56B-1292A1C6C7C2}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Essentiel, souhaité, optionnel</t>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="3" shapeId="0" xr:uid="{623676B3-14AA-4184-9428-55ADD2304DA4}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    facile, moyen, difficile, incertain</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Dany Viens</t>
+  </si>
+  <si>
+    <t>Projet Synthèse</t>
+  </si>
+  <si>
+    <t>Audience - webapp optimisation d'horaire</t>
+  </si>
+  <si>
+    <t># Tâche</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Prérequis</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Difficulté</t>
+  </si>
+  <si>
+    <t>Temps estimé</t>
+  </si>
+  <si>
+    <t>Sprint Visé</t>
+  </si>
+  <si>
+    <t>Cote difficulté</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>incertain</t>
+  </si>
+  <si>
+    <t>moyen</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint  2</t>
+  </si>
+  <si>
+    <t>Nb tâche</t>
+  </si>
+  <si>
+    <t>Difficulté moyenne</t>
+  </si>
+  <si>
+    <t>Temps total</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +176,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +231,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +436,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Dany Viens" id="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" userId="467c48d463c82cf1" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -329,14 +705,857 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D8" dT="2021-02-26T05:15:37.37" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{9F0570D1-CBA7-43A1-9070-AFCA2B0D67C9}">
+    <text>1 à 6 mots</text>
+  </threadedComment>
+  <threadedComment ref="E8" dT="2021-02-26T05:16:01.90" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{81C60AC0-D935-46DE-84D8-EC6328CEDC30}">
+    <text># des tâches préalables</text>
+  </threadedComment>
+  <threadedComment ref="F8" dT="2021-02-26T05:16:35.27" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{85ED4ADB-3F6C-4847-A56B-1292A1C6C7C2}">
+    <text>Essentiel, souhaité, optionnel</text>
+  </threadedComment>
+  <threadedComment ref="G8" dT="2021-02-26T05:17:12.92" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{623676B3-14AA-4184-9428-55ADD2304DA4}">
+    <text>facile, moyen, difficile, incertain</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <f>IF(G9="facile",1,IF(G9="moyen",5,IF(G9="difficile",10,7.5)))</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H73" si="0">IF(G10="facile",1,IF(G10="moyen",5,IF(G10="difficile",10,7.5)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" ref="H74:H119" si="1">IF(G74="facile",1,IF(G74="moyen",5,IF(G74="difficile",10,7.5)))</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FC4785-3BD9-41D0-9E98-883085916642}">
+  <dimension ref="D5:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <f>COUNT('Plannification globale'!I9:I11)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" cm="1">
+        <f t="array" ref="F7" xml:space="preserve"> SUM('Plannification globale'!H9:H11*'Plannification globale'!I9:I11)/SUM('Plannification globale'!I9:I11)</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM('Plannification globale'!I9:I11)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6">
+        <f>COUNT('Plannification globale'!I9:I11)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="14" cm="1">
+        <f t="array" ref="F9" xml:space="preserve"> SUM('Plannification globale'!H9:H11*'Plannification globale'!I9:I11)/SUM('Plannification globale'!I9:I11)</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="20"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <f>COUNT('Plannification globale'!I9:I11)</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/C61/Phase 1/Planification.xlsx
+++ b/C61/Phase 1/Planification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\C61-ProjetSynthese\C61\Phase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708AF07-7A6E-48A7-8718-8259C48EB4EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34834CA-1EC4-4CFD-97C7-549CD0C1F2DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,6 +44,20 @@
     <author>tc={81C60AC0-D935-46DE-84D8-EC6328CEDC30}</author>
     <author>tc={85ED4ADB-3F6C-4847-A56B-1292A1C6C7C2}</author>
     <author>tc={623676B3-14AA-4184-9428-55ADD2304DA4}</author>
+    <author>tc={1DC6ABEE-7B3E-4A9F-B9F6-F46BC688CCE7}</author>
+    <author>tc={2852775C-1FBD-44C4-BAC1-A431D0981B5F}</author>
+    <author>tc={FD1A719F-3BCD-43EA-9D4D-18DEB5B2F5B0}</author>
+    <author>tc={81164D7C-C2FB-4244-8414-CC41969DF381}</author>
+    <author>tc={5395E750-0FFD-4E03-80CD-6069BBA6BD3D}</author>
+    <author>tc={8273DA2D-5529-4100-9525-4612A9DD7ED1}</author>
+    <author>tc={CF6E1DF2-5610-47EB-B066-EC977CD7FA91}</author>
+    <author>tc={74B595E4-52D0-481A-B607-E17032472E4B}</author>
+    <author>tc={A6648092-3E5F-4913-8427-45C9B466D863}</author>
+    <author>tc={9B43A026-F2D0-4C8C-9703-B31060206748}</author>
+    <author>tc={C1705974-8169-4660-B0F6-44A9345D0878}</author>
+    <author>tc={3E9CB20E-C6B4-4C89-B285-CAB63B422B3F}</author>
+    <author>tc={BD812E72-99A0-464D-95E6-D06ACD7A7C9C}</author>
+    <author>tc={5E04ADCF-5B9E-413B-8541-DDB20D8F2750}</author>
   </authors>
   <commentList>
     <comment ref="D8" authorId="0" shapeId="0" xr:uid="{9F0570D1-CBA7-43A1-9070-AFCA2B0D67C9}">
@@ -78,6 +92,118 @@
     facile, moyen, difficile, incertain</t>
       </text>
     </comment>
+    <comment ref="C9" authorId="4" shapeId="0" xr:uid="{1DC6ABEE-7B3E-4A9F-B9F6-F46BC688CCE7}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Affichage incluant toujours : Incluant CSS, JS et html</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="5" shapeId="0" xr:uid="{2852775C-1FBD-44C4-BAC1-A431D0981B5F}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Création des setters pour la BD</t>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="6" shapeId="0" xr:uid="{FD1A719F-3BCD-43EA-9D4D-18DEB5B2F5B0}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    gestion de l'authentification dans cette étape</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="7" shapeId="0" xr:uid="{81164D7C-C2FB-4244-8414-CC41969DF381}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    gestion des formulaires et affichage des erreurs le cas échéant</t>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="8" shapeId="0" xr:uid="{5395E750-0FFD-4E03-80CD-6069BBA6BD3D}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    écriture dans la BD</t>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="9" shapeId="0" xr:uid="{8273DA2D-5529-4100-9525-4612A9DD7ED1}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    doit lire dans BD évènement pour afficher les évènements en lien avec le userID</t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="10" shapeId="0" xr:uid="{CF6E1DF2-5610-47EB-B066-EC977CD7FA91}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    et création d'une disponibilité pour le créateur</t>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="11" shapeId="0" xr:uid="{74B595E4-52D0-481A-B607-E17032472E4B}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Redirection vers acceuil si client non authentifié essaie d'accéder à une page</t>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="12" shapeId="0" xr:uid="{A6648092-3E5F-4913-8427-45C9B466D863}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Initialisation des paramètres : nb de genérations maximales, case horaire de l'évènement et les disponibilités des participants</t>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="13" shapeId="0" xr:uid="{9B43A026-F2D0-4C8C-9703-B31060206748}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Ne doit pas avoir de lien vers le problème directement.</t>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="14" shapeId="0" xr:uid="{C1705974-8169-4660-B0F6-44A9345D0878}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Un seul choix pour la disponibilité. Réserve automatiquement la plage horaire. La plage devient indisponible pour les autres usagers.</t>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="15" shapeId="0" xr:uid="{3E9CB20E-C6B4-4C89-B285-CAB63B422B3F}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Possibilité d'ajouter une préférence. Doit être tenu en compte comme une variable par le ScheduleOptimizer</t>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="16" shapeId="0" xr:uid="{BD812E72-99A0-464D-95E6-D06ACD7A7C9C}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Envoyer un JSON avec les données à être affichée pour l'affichage. ET pour le calcul du script algoGen</t>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="17" shapeId="0" xr:uid="{5E04ADCF-5B9E-413B-8541-DDB20D8F2750}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Fonctionnalité similaire à Doodle. Un sondage seulement.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -105,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>Dany Viens</t>
   </si>
@@ -342,13 +468,22 @@
   </si>
   <si>
     <t>20, 22</t>
+  </si>
+  <si>
+    <t>1,4,8,11,18,34</t>
+  </si>
+  <si>
+    <t>34, 18, 15, 11, 7, 4, 1</t>
+  </si>
+  <si>
+    <t>12, 35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +498,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -901,6 +1042,48 @@
   <threadedComment ref="G8" dT="2021-02-26T05:17:12.92" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{623676B3-14AA-4184-9428-55ADD2304DA4}">
     <text>facile, moyen, difficile, incertain</text>
   </threadedComment>
+  <threadedComment ref="C9" dT="2021-03-04T01:57:39.57" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{1DC6ABEE-7B3E-4A9F-B9F6-F46BC688CCE7}">
+    <text>Affichage incluant toujours : Incluant CSS, JS et html</text>
+  </threadedComment>
+  <threadedComment ref="C10" dT="2021-03-04T01:58:02.23" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{2852775C-1FBD-44C4-BAC1-A431D0981B5F}">
+    <text>Création des setters pour la BD</text>
+  </threadedComment>
+  <threadedComment ref="C11" dT="2021-03-04T01:58:31.14" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{FD1A719F-3BCD-43EA-9D4D-18DEB5B2F5B0}">
+    <text>gestion de l'authentification dans cette étape</text>
+  </threadedComment>
+  <threadedComment ref="C14" dT="2021-03-04T01:58:57.09" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{81164D7C-C2FB-4244-8414-CC41969DF381}">
+    <text>gestion des formulaires et affichage des erreurs le cas échéant</text>
+  </threadedComment>
+  <threadedComment ref="C15" dT="2021-03-04T01:59:11.18" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{5395E750-0FFD-4E03-80CD-6069BBA6BD3D}">
+    <text>écriture dans la BD</text>
+  </threadedComment>
+  <threadedComment ref="C17" dT="2021-03-04T01:59:38.54" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{8273DA2D-5529-4100-9525-4612A9DD7ED1}">
+    <text>doit lire dans BD évènement pour afficher les évènements en lien avec le userID</text>
+  </threadedComment>
+  <threadedComment ref="C20" dT="2021-03-04T01:59:57.71" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{CF6E1DF2-5610-47EB-B066-EC977CD7FA91}">
+    <text>et création d'une disponibilité pour le créateur</text>
+  </threadedComment>
+  <threadedComment ref="C24" dT="2021-03-04T02:00:37.21" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{74B595E4-52D0-481A-B607-E17032472E4B}">
+    <text>Redirection vers acceuil si client non authentifié essaie d'accéder à une page</text>
+  </threadedComment>
+  <threadedComment ref="C28" dT="2021-03-04T02:01:47.43" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{A6648092-3E5F-4913-8427-45C9B466D863}">
+    <text>Initialisation des paramètres : nb de genérations maximales, case horaire de l'évènement et les disponibilités des participants</text>
+  </threadedComment>
+  <threadedComment ref="C30" dT="2021-03-04T02:02:08.42" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{9B43A026-F2D0-4C8C-9703-B31060206748}">
+    <text>Ne doit pas avoir de lien vers le problème directement.</text>
+  </threadedComment>
+  <threadedComment ref="C38" dT="2021-03-04T02:04:06.55" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{C1705974-8169-4660-B0F6-44A9345D0878}">
+    <text>Un seul choix pour la disponibilité. Réserve automatiquement la plage horaire. La plage devient indisponible pour les autres usagers.</text>
+  </threadedComment>
+  <threadedComment ref="C39" dT="2021-03-04T02:04:37.30" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{3E9CB20E-C6B4-4C89-B285-CAB63B422B3F}">
+    <text>Possibilité d'ajouter une préférence. Doit être tenu en compte comme une variable par le ScheduleOptimizer</text>
+  </threadedComment>
+  <threadedComment ref="C44" dT="2021-03-04T02:05:22.67" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{BD812E72-99A0-464D-95E6-D06ACD7A7C9C}">
+    <text>Envoyer un JSON avec les données à être affichée pour l'affichage. ET pour le calcul du script algoGen</text>
+  </threadedComment>
+  <threadedComment ref="C52" dT="2021-03-04T02:05:57.87" personId="{062A69FF-1505-4449-A6A7-1A51CCE61D02}" id="{5E04ADCF-5B9E-413B-8541-DDB20D8F2750}">
+    <text>Fonctionnalité similaire à Doodle. Un sondage seulement.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -908,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="21">
-        <f>IF(G9="facile",1,IF(G9="moyen",5,IF(G9="difficile",10,7.5)))</f>
+        <f t="shared" ref="H9:H14" si="0">IF(G9="facile",1,IF(G9="moyen",5,IF(G9="difficile",10,7.5)))</f>
         <v>1</v>
       </c>
       <c r="I9" s="21">
@@ -1011,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="21">
-        <f>IF(G10="facile",1,IF(G10="moyen",5,IF(G10="difficile",10,7.5)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I10" s="21">
@@ -1038,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="21">
-        <f>IF(G11="facile",1,IF(G11="moyen",5,IF(G11="difficile",10,7.5)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I11" s="21">
@@ -1065,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="21">
-        <f>IF(G12="facile",1,IF(G12="moyen",5,IF(G12="difficile",10,7.5)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="21">
@@ -1092,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="21">
-        <f>IF(G13="facile",1,IF(G13="moyen",5,IF(G13="difficile",10,7.5)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I13" s="21">
@@ -1119,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="H14" s="21">
-        <f>IF(G14="facile",1,IF(G14="moyen",5,IF(G14="difficile",10,7.5)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I14" s="21">
@@ -1173,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="21">
-        <f>IF(G16="facile",1,IF(G16="moyen",5,IF(G16="difficile",10,7.5)))</f>
+        <f t="shared" ref="H16:H53" si="1">IF(G16="facile",1,IF(G16="moyen",5,IF(G16="difficile",10,7.5)))</f>
         <v>5</v>
       </c>
       <c r="I16" s="21">
@@ -1200,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="21">
-        <f>IF(G17="facile",1,IF(G17="moyen",5,IF(G17="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I17" s="21">
@@ -1227,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="21">
-        <f>IF(G18="facile",1,IF(G18="moyen",5,IF(G18="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I18" s="21">
@@ -1254,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="21">
-        <f>IF(G19="facile",1,IF(G19="moyen",5,IF(G19="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I19" s="21">
@@ -1281,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="H20" s="21">
-        <f>IF(G20="facile",1,IF(G20="moyen",5,IF(G20="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I20" s="21">
@@ -1308,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="21">
-        <f>IF(G21="facile",1,IF(G21="moyen",5,IF(G21="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I21" s="21">
@@ -1335,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="21">
-        <f>IF(G22="facile",1,IF(G22="moyen",5,IF(G22="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I22" s="21">
@@ -1362,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="21">
-        <f>IF(G23="facile",1,IF(G23="moyen",5,IF(G23="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I23" s="21">
@@ -1389,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="4">
-        <f>IF(G24="facile",1,IF(G24="moyen",5,IF(G24="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I24" s="4">
@@ -1416,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="4">
-        <f>IF(G25="facile",1,IF(G25="moyen",5,IF(G25="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I25" s="4">
@@ -1443,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="4">
-        <f>IF(G26="facile",1,IF(G26="moyen",5,IF(G26="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I26" s="4">
@@ -1470,7 +1653,7 @@
         <v>43</v>
       </c>
       <c r="H27" s="4">
-        <f>IF(G27="facile",1,IF(G27="moyen",5,IF(G27="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I27" s="4">
@@ -1497,7 +1680,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="4">
-        <f>IF(G28="facile",1,IF(G28="moyen",5,IF(G28="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I28" s="4">
@@ -1524,7 +1707,7 @@
         <v>43</v>
       </c>
       <c r="H29" s="4">
-        <f>IF(G29="facile",1,IF(G29="moyen",5,IF(G29="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I29" s="4">
@@ -1551,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="H30" s="4">
-        <f>IF(G30="facile",1,IF(G30="moyen",5,IF(G30="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I30" s="4">
@@ -1578,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="4">
-        <f>IF(G31="facile",1,IF(G31="moyen",5,IF(G31="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I31" s="4">
@@ -1605,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="4">
-        <f>IF(G32="facile",1,IF(G32="moyen",5,IF(G32="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I32" s="4">
@@ -1632,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="4">
-        <f>IF(G33="facile",1,IF(G33="moyen",5,IF(G33="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I33" s="4">
@@ -1659,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="4">
-        <f>IF(G34="facile",1,IF(G34="moyen",5,IF(G34="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I34" s="4">
@@ -1686,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="4">
-        <f>IF(G35="facile",1,IF(G35="moyen",5,IF(G35="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35" s="4">
@@ -1713,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="4">
-        <f>IF(G36="facile",1,IF(G36="moyen",5,IF(G36="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I36" s="4">
@@ -1740,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="4">
-        <f>IF(G37="facile",1,IF(G37="moyen",5,IF(G37="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I37" s="4">
@@ -1767,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="4">
-        <f>IF(G38="facile",1,IF(G38="moyen",5,IF(G38="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I38" s="4">
@@ -1794,7 +1977,7 @@
         <v>43</v>
       </c>
       <c r="H39" s="4">
-        <f>IF(G39="facile",1,IF(G39="moyen",5,IF(G39="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I39" s="4">
@@ -1811,7 +1994,9 @@
       <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>34.35</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>23</v>
       </c>
@@ -1819,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="H40" s="2">
-        <f>IF(G40="facile",1,IF(G40="moyen",5,IF(G40="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I40" s="2">
@@ -1836,7 +2021,9 @@
       <c r="D41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>32</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>23</v>
       </c>
@@ -1844,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="2">
-        <f>IF(G41="facile",1,IF(G41="moyen",5,IF(G41="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I41" s="2">
@@ -1861,7 +2048,9 @@
       <c r="D42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>33</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="2">
-        <f>IF(G42="facile",1,IF(G42="moyen",5,IF(G42="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I42" s="2">
@@ -1894,7 +2083,7 @@
         <v>43</v>
       </c>
       <c r="H43" s="2">
-        <f>IF(G43="facile",1,IF(G43="moyen",5,IF(G43="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I43" s="2">
@@ -1921,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="2">
-        <f>IF(G44="facile",1,IF(G44="moyen",5,IF(G44="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I44" s="2">
@@ -1938,7 +2127,9 @@
       <c r="D45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="2">
-        <f>IF(G45="facile",1,IF(G45="moyen",5,IF(G45="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I45" s="2">
@@ -1963,7 +2154,9 @@
       <c r="D46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +2164,7 @@
         <v>10</v>
       </c>
       <c r="H46" s="2">
-        <f>IF(G46="facile",1,IF(G46="moyen",5,IF(G46="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I46" s="2">
@@ -1988,7 +2181,9 @@
       <c r="D47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>21</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>24</v>
       </c>
@@ -1996,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="H47" s="2">
-        <f>IF(G47="facile",1,IF(G47="moyen",5,IF(G47="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I47" s="2">
@@ -2013,7 +2208,9 @@
       <c r="D48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>21</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>24</v>
       </c>
@@ -2021,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="H48" s="2">
-        <f>IF(G48="facile",1,IF(G48="moyen",5,IF(G48="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I48" s="2">
@@ -2038,7 +2235,9 @@
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>21</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="H49" s="2">
-        <f>IF(G49="facile",1,IF(G49="moyen",5,IF(G49="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="I49" s="2">
@@ -2063,7 +2262,9 @@
       <c r="D50" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>32.33</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2272,7 @@
         <v>43</v>
       </c>
       <c r="H50" s="2">
-        <f>IF(G50="facile",1,IF(G50="moyen",5,IF(G50="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I50" s="2">
@@ -2088,7 +2289,9 @@
       <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>42</v>
       </c>
@@ -2096,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="H51" s="2">
-        <f>IF(G51="facile",1,IF(G51="moyen",5,IF(G51="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I51" s="2">
@@ -2113,7 +2316,9 @@
       <c r="D52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>42</v>
       </c>
@@ -2121,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="H52" s="2">
-        <f>IF(G52="facile",1,IF(G52="moyen",5,IF(G52="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I52" s="2">
@@ -2138,7 +2343,9 @@
       <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>36</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
@@ -2146,7 +2353,7 @@
         <v>43</v>
       </c>
       <c r="H53" s="2">
-        <f>IF(G53="facile",1,IF(G53="moyen",5,IF(G53="difficile",10,7.5)))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I53" s="2">
